--- a/Data/Mitigation implementations timelines.xlsx
+++ b/Data/Mitigation implementations timelines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/GitHub/CovidPolicy-Canada/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/GitHub/CovidPolicy-Canada/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BB213A-F858-DA4E-87D2-FC3ED33506C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA8C955-0548-5B4F-8E74-A9D67A3C0ADF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="520" windowWidth="15280" windowHeight="15900" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="1240">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -10995,6 +10995,12 @@
   <si>
     <t xml:space="preserve">Vaccine mandate is fully lifted but it will continue to be required for employees, contractors and volunteers working in high-risk settings in the Yukon.
 High-risk settings include: long-term care homes; residential substance use programs; hospitals; shelters; residential care for children and adults; correctional centres; Yukon government-operated community health centres; and Yukon government-operated public health clinics, including the referred care clinic. (https://yukon.ca/en/news/vaccination-requirement-continues-workers-high-risk-settings-yukon) (https://yukon.ca/en/news/vaccination-requirement-lifted-most-workers) </t>
+  </si>
+  <si>
+    <t>01/10/2022</t>
+  </si>
+  <si>
+    <t>Schools reopen with restrictions in place.(https://rdnewsnow.com/2021/12/30/winter-break-extended-to-january-10-for-albertas-k-12-students/#:~:text=Winter%20break%20has%20been%20extended,10%2C%202022.) (https://www.todocanada.ca/alberta-schools-to-reopen-on-january-10th-after-winter-break-cancels-january-high-school-diploma-exam/)</t>
   </si>
 </sst>
 </file>
@@ -11218,7 +11224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11615,6 +11621,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -12692,16 +12702,16 @@
       </c>
     </row>
     <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1">
-      <c r="A40" s="179" t="s">
+      <c r="A40" s="181" t="s">
         <v>813</v>
       </c>
-      <c r="B40" s="181" t="s">
+      <c r="B40" s="183" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
-      <c r="A41" s="180"/>
-      <c r="B41" s="181"/>
+      <c r="A41" s="182"/>
+      <c r="B41" s="183"/>
     </row>
     <row r="42" spans="1:2" ht="34">
       <c r="A42" s="70" t="s">
@@ -12712,28 +12722,28 @@
       </c>
     </row>
     <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1">
-      <c r="A43" s="179" t="s">
+      <c r="A43" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="181" t="s">
+      <c r="B43" s="183" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1">
-      <c r="A44" s="180"/>
-      <c r="B44" s="181"/>
+      <c r="A44" s="182"/>
+      <c r="B44" s="183"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1">
-      <c r="A45" s="177" t="s">
+      <c r="A45" s="179" t="s">
         <v>448</v>
       </c>
-      <c r="B45" s="181" t="s">
+      <c r="B45" s="183" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1">
-      <c r="A46" s="182"/>
-      <c r="B46" s="181"/>
+      <c r="A46" s="184"/>
+      <c r="B46" s="183"/>
     </row>
     <row r="47" spans="1:2" ht="17">
       <c r="A47" s="70" t="s">
@@ -12760,28 +12770,28 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1">
-      <c r="A50" s="179" t="s">
+      <c r="A50" s="181" t="s">
         <v>824</v>
       </c>
-      <c r="B50" s="181" t="s">
+      <c r="B50" s="183" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1">
-      <c r="A51" s="180"/>
-      <c r="B51" s="181"/>
+      <c r="A51" s="182"/>
+      <c r="B51" s="183"/>
     </row>
     <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
-      <c r="A52" s="179" t="s">
+      <c r="A52" s="181" t="s">
         <v>825</v>
       </c>
-      <c r="B52" s="181" t="s">
+      <c r="B52" s="183" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1">
-      <c r="A53" s="180"/>
-      <c r="B53" s="181"/>
+      <c r="A53" s="182"/>
+      <c r="B53" s="183"/>
     </row>
     <row r="54" spans="1:2" ht="34">
       <c r="A54" s="70" t="s">
@@ -14143,24 +14153,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1">
-      <c r="A14" s="183" t="s">
+      <c r="A14" s="185" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="183" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1">
-      <c r="A15" s="184"/>
-      <c r="B15" s="181"/>
+      <c r="A15" s="186"/>
+      <c r="B15" s="183"/>
     </row>
     <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1">
-      <c r="A16" s="184"/>
-      <c r="B16" s="181"/>
+      <c r="A16" s="186"/>
+      <c r="B16" s="183"/>
     </row>
     <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
-      <c r="A17" s="184"/>
-      <c r="B17" s="181"/>
+      <c r="A17" s="186"/>
+      <c r="B17" s="183"/>
     </row>
     <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
       <c r="A18" s="69" t="s">
@@ -14655,11 +14665,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -15118,35 +15128,43 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="165" customFormat="1" ht="187">
+    <row r="51" spans="1:2" s="176" customFormat="1" ht="51">
       <c r="A51" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B51" s="177" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="165" customFormat="1" ht="187">
+      <c r="A52" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="B51" s="166" t="s">
+      <c r="B52" s="166" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="165" customFormat="1" ht="238">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:2" s="165" customFormat="1" ht="238">
+      <c r="A53" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B52" s="166" t="s">
+      <c r="B53" s="166" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="165" customFormat="1" ht="34">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:2" s="165" customFormat="1" ht="34">
+      <c r="A54" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="B53" s="166" t="s">
+      <c r="B54" s="166" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="68">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:2" ht="68">
+      <c r="A55" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="B54" s="166" t="s">
+      <c r="B55" s="166" t="s">
         <v>1231</v>
       </c>
     </row>
@@ -17806,20 +17824,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="408" customHeight="1">
-      <c r="A34" s="177" t="s">
+      <c r="A34" s="179" t="s">
         <v>269</v>
       </c>
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="178" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="206" customHeight="1">
-      <c r="A35" s="177"/>
-      <c r="B35" s="176"/>
+      <c r="A35" s="179"/>
+      <c r="B35" s="178"/>
     </row>
     <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1">
-      <c r="A36" s="178"/>
-      <c r="B36" s="176"/>
+      <c r="A36" s="180"/>
+      <c r="B36" s="178"/>
     </row>
     <row r="37" spans="1:3" s="43" customFormat="1" ht="51">
       <c r="A37" s="1" t="s">
@@ -17936,16 +17954,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1">
-      <c r="A50" s="179" t="s">
+      <c r="A50" s="181" t="s">
         <v>903</v>
       </c>
-      <c r="B50" s="176" t="s">
+      <c r="B50" s="178" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1">
-      <c r="A51" s="180"/>
-      <c r="B51" s="176"/>
+      <c r="A51" s="182"/>
+      <c r="B51" s="178"/>
     </row>
     <row r="52" spans="1:2" ht="17">
       <c r="A52" s="103" t="s">
@@ -18764,7 +18782,7 @@
   </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>

--- a/Data/Mitigation implementations timelines.xlsx
+++ b/Data/Mitigation implementations timelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/GitHub/CovidPolicy-Canada/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA8C955-0548-5B4F-8E74-A9D67A3C0ADF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30E2B55-63B6-5942-8303-0DDE1CD1BDE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1242">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -11001,6 +11001,12 @@
   </si>
   <si>
     <t>Schools reopen with restrictions in place.(https://rdnewsnow.com/2021/12/30/winter-break-extended-to-january-10-for-albertas-k-12-students/#:~:text=Winter%20break%20has%20been%20extended,10%2C%202022.) (https://www.todocanada.ca/alberta-schools-to-reopen-on-january-10th-after-winter-break-cancels-january-high-school-diploma-exam/)</t>
+  </si>
+  <si>
+    <t>Spring break. (https://www.cbe.ab.ca/registration/calendars/Documents/2020-2021-Traditional-Calendar.pdf)</t>
+  </si>
+  <si>
+    <t>Spring breat (https://www.cbe.ab.ca/registration/calendars/Documents/2021-2022-Modified-Calendar.pdf)</t>
   </si>
 </sst>
 </file>
@@ -11224,7 +11230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11625,6 +11631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -11964,11 +11971,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -12205,158 +12212,170 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="136">
+    <row r="29" spans="1:2" s="178" customFormat="1" ht="17">
       <c r="A29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="136">
+      <c r="A30" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="16" customFormat="1" ht="68">
-      <c r="A30" s="36" t="s">
+    <row r="31" spans="1:2" s="16" customFormat="1" ht="68">
+      <c r="A31" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B31" s="28" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:2" ht="34">
+      <c r="A32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="86" customFormat="1" ht="51">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:3" s="86" customFormat="1" ht="51">
+      <c r="A33" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="170">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:3" ht="170">
+      <c r="A34" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="86" customFormat="1" ht="17">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:3" s="86" customFormat="1" ht="17">
+      <c r="A35" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="B34" s="87" t="s">
+      <c r="B35" s="87" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="136">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:3" ht="136">
+      <c r="A36" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B35" s="88" t="s">
+      <c r="B36" s="88" t="s">
         <v>889</v>
       </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" s="101" customFormat="1" ht="68">
-      <c r="A36" s="1" t="s">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" s="101" customFormat="1" ht="68">
+      <c r="A37" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="B36" s="88" t="s">
+      <c r="B37" s="88" t="s">
         <v>957</v>
       </c>
-      <c r="C36" s="102"/>
-    </row>
-    <row r="37" spans="1:3" ht="68">
-      <c r="A37" s="1" t="s">
+      <c r="C37" s="102"/>
+    </row>
+    <row r="38" spans="1:3" ht="68">
+      <c r="A38" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="B37" s="88" t="s">
+      <c r="B38" s="88" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="104" customFormat="1" ht="289">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:3" s="104" customFormat="1" ht="289">
+      <c r="A39" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="B38" s="88" t="s">
+      <c r="B39" s="88" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="104" customFormat="1" ht="306">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:3" s="104" customFormat="1" ht="306">
+      <c r="A40" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="B39" s="88" t="s">
+      <c r="B40" s="88" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="105" customFormat="1" ht="51">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:3" s="105" customFormat="1" ht="51">
+      <c r="A41" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="B40" s="88" t="s">
+      <c r="B41" s="88" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="110" customFormat="1" ht="34">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:3" s="110" customFormat="1" ht="34">
+      <c r="A42" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B41" s="88" t="s">
+      <c r="B42" s="88" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="115" customFormat="1" ht="221">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:3" s="115" customFormat="1" ht="221">
+      <c r="A43" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="B42" s="88" t="s">
+      <c r="B43" s="88" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="122" customFormat="1" ht="34">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:3" s="122" customFormat="1" ht="34">
+      <c r="A44" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="B43" s="88" t="s">
+      <c r="B44" s="88" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="156" customFormat="1" ht="187">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:3" s="156" customFormat="1" ht="187">
+      <c r="A45" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="B44" s="88" t="s">
+      <c r="B45" s="88" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="156" customFormat="1" ht="34">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:3" s="156" customFormat="1" ht="34">
+      <c r="A46" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="B45" s="88" t="s">
+      <c r="B46" s="88" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="156" customFormat="1" ht="204">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:3" s="156" customFormat="1" ht="204">
+      <c r="A47" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="B46" s="88" t="s">
+      <c r="B47" s="88" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="162" customFormat="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="88"/>
-    </row>
-    <row r="48" spans="1:3" ht="51">
-      <c r="C48" s="102" t="s">
+    <row r="48" spans="1:3" s="162" customFormat="1" ht="17">
+      <c r="A48" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B48" s="88" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" ht="51">
+      <c r="C49" s="102" t="s">
         <v>617</v>
       </c>
     </row>
@@ -12702,16 +12721,16 @@
       </c>
     </row>
     <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1">
-      <c r="A40" s="181" t="s">
+      <c r="A40" s="182" t="s">
         <v>813</v>
       </c>
-      <c r="B40" s="183" t="s">
+      <c r="B40" s="184" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
-      <c r="A41" s="182"/>
-      <c r="B41" s="183"/>
+      <c r="A41" s="183"/>
+      <c r="B41" s="184"/>
     </row>
     <row r="42" spans="1:2" ht="34">
       <c r="A42" s="70" t="s">
@@ -12722,28 +12741,28 @@
       </c>
     </row>
     <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1">
-      <c r="A43" s="181" t="s">
+      <c r="A43" s="182" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="183" t="s">
+      <c r="B43" s="184" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1">
-      <c r="A44" s="182"/>
-      <c r="B44" s="183"/>
+      <c r="A44" s="183"/>
+      <c r="B44" s="184"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1">
-      <c r="A45" s="179" t="s">
+      <c r="A45" s="180" t="s">
         <v>448</v>
       </c>
-      <c r="B45" s="183" t="s">
+      <c r="B45" s="184" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1">
-      <c r="A46" s="184"/>
-      <c r="B46" s="183"/>
+      <c r="A46" s="185"/>
+      <c r="B46" s="184"/>
     </row>
     <row r="47" spans="1:2" ht="17">
       <c r="A47" s="70" t="s">
@@ -12770,28 +12789,28 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1">
-      <c r="A50" s="181" t="s">
+      <c r="A50" s="182" t="s">
         <v>824</v>
       </c>
-      <c r="B50" s="183" t="s">
+      <c r="B50" s="184" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1">
-      <c r="A51" s="182"/>
-      <c r="B51" s="183"/>
+      <c r="A51" s="183"/>
+      <c r="B51" s="184"/>
     </row>
     <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
-      <c r="A52" s="181" t="s">
+      <c r="A52" s="182" t="s">
         <v>825</v>
       </c>
-      <c r="B52" s="183" t="s">
+      <c r="B52" s="184" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1">
-      <c r="A53" s="182"/>
-      <c r="B53" s="183"/>
+      <c r="A53" s="183"/>
+      <c r="B53" s="184"/>
     </row>
     <row r="54" spans="1:2" ht="34">
       <c r="A54" s="70" t="s">
@@ -12945,7 +12964,7 @@
   </sheetPr>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -14153,24 +14172,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1">
-      <c r="A14" s="185" t="s">
+      <c r="A14" s="186" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="183" t="s">
+      <c r="B14" s="184" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1">
-      <c r="A15" s="186"/>
-      <c r="B15" s="183"/>
+      <c r="A15" s="187"/>
+      <c r="B15" s="184"/>
     </row>
     <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1">
-      <c r="A16" s="186"/>
-      <c r="B16" s="183"/>
+      <c r="A16" s="187"/>
+      <c r="B16" s="184"/>
     </row>
     <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
-      <c r="A17" s="186"/>
-      <c r="B17" s="183"/>
+      <c r="A17" s="187"/>
+      <c r="B17" s="184"/>
     </row>
     <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
       <c r="A18" s="69" t="s">
@@ -14667,8 +14686,8 @@
   </sheetPr>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -14918,7 +14937,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="272">
+    <row r="27" spans="1:3" ht="255">
       <c r="A27" s="6" t="s">
         <v>164</v>
       </c>
@@ -15759,7 +15778,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="153">
+    <row r="8" spans="1:3" ht="136">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -17013,7 +17032,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="120" customFormat="1" ht="153">
+    <row r="111" spans="1:3" s="120" customFormat="1" ht="136">
       <c r="A111" s="6" t="s">
         <v>1051</v>
       </c>
@@ -17538,8 +17557,8 @@
   </sheetPr>
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -17824,20 +17843,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="408" customHeight="1">
-      <c r="A34" s="179" t="s">
+      <c r="A34" s="180" t="s">
         <v>269</v>
       </c>
-      <c r="B34" s="178" t="s">
+      <c r="B34" s="179" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="206" customHeight="1">
-      <c r="A35" s="179"/>
-      <c r="B35" s="178"/>
+      <c r="A35" s="180"/>
+      <c r="B35" s="179"/>
     </row>
     <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1">
-      <c r="A36" s="180"/>
-      <c r="B36" s="178"/>
+      <c r="A36" s="181"/>
+      <c r="B36" s="179"/>
     </row>
     <row r="37" spans="1:3" s="43" customFormat="1" ht="51">
       <c r="A37" s="1" t="s">
@@ -17954,16 +17973,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1">
-      <c r="A50" s="181" t="s">
+      <c r="A50" s="182" t="s">
         <v>903</v>
       </c>
-      <c r="B50" s="178" t="s">
+      <c r="B50" s="179" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1">
-      <c r="A51" s="182"/>
-      <c r="B51" s="178"/>
+      <c r="A51" s="183"/>
+      <c r="B51" s="179"/>
     </row>
     <row r="52" spans="1:2" ht="17">
       <c r="A52" s="103" t="s">
@@ -18079,9 +18098,9 @@
   </sheetPr>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -18782,7 +18801,7 @@
   </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
